--- a/data/trans_bre/P12B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>73,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,24%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>41,58%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>74,69%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.585857710831233</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.650081060105661</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.268653153418878</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.997431259718661</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.6515744178984967</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2717624172377759</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3969326741750791</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6571323708656793</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 16,88</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 10,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 11,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 19,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 254,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-18,49; 101,6</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 113,58</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 299,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.799673658362628</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.035519102892749</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.009043109389263</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.055182739693897</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.1964342250207986</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1934943881338535</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.05864355772806105</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1997652569325974</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.28300216860765</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.37503110275832</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.10250892058588</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.74736819927337</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.269933356728629</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.039123792107502</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.133642979725691</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.651625689581892</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,38</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-31,81%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-18,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 5,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 0,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 4,69</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,09; 2,75</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-47,93; 85,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-62,12; 10,55</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-32,61; 70,82</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-58,91; 31,4</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.329543558902011</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.547855263221199</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5718283086748155</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.287008039376728</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.03874537760722493</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2793240212667845</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.07278374938439351</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1843855975298489</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,61</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>45,93%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,67%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-18,18%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.029748272928761</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.944983892120935</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.507199376774505</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-12.79138563168222</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.4895834837307948</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5959156319785894</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3462847146774893</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.599038146427313</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 4,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 4,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 3,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 2,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-43,35; 184,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 172,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-28,12; 125,26</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-54,46; 42,37</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.990391258198263</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.02035617152682</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.097272626080999</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.868652577077333</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.8138892376161432</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1683712549326308</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6542253429216179</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3339435603612592</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>100,33%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>52,37%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.07089893087498106</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.925647605863789</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.252906748563452</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.805347600109172</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.01302301897139827</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.4569566841575782</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2821693296435577</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2030119873762785</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,96; 4,69</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 11,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 10,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-40,14; 66,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>12,85; 236,22</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 158,01</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.312644705874341</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.9209038807494883</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.561313885603535</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.435841877057727</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.617069525016985</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1811803564119762</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2634845102876772</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5563905791100358</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.771039040661112</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.958520446855506</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.999649898699668</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.281717956482471</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.184922360252391</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.684974996891475</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.268414134524089</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4033129204782915</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>16,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19,37%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,23%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>15,64%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 4,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 3,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 4,78</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 4,84</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-15,02; 57,22</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,96; 56,32</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 71,3</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-16,67; 55,96</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.738998716430209</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4308413842836048</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.196951035606745</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.144649860210197</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.2199682586727562</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.05124271016467492</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2773559982059606</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.01336337162216645</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.833145704803469</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.482179886787107</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2075147628080891</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.47103356639843</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.1928501190591412</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2428709399459976</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.0231077993573636</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3282757328846503</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.768210654721352</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.024946318463278</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.622049309608502</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.017955898567506</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.7478670112706191</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4384877740793062</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7021973945851291</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4627466907481684</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
